--- a/mcmaster_excel/High-Strength_High-Temperature_PEEK_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/High-Strength_High-Temperature_PEEK_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,139 +434,105 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.195"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.070"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-60° to 500°</t>
+          <t>TemperatureRange, °F</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Beige</t>
+          <t>Color</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>96367A971</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$10.81</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>PEEK Plastic</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,12 +577,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>96367A972</t>
+          <t>96367A971</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>$10.81</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -633,7 +599,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -678,12 +644,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>96367A973</t>
+          <t>96367A972</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11.33</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -700,7 +666,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,12 +711,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>96367A974</t>
+          <t>96367A973</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,7 +733,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -777,12 +743,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.210"</t>
+          <t>0.195"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.070"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -812,17 +778,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>96367A975</t>
+          <t>96367A974</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -834,7 +800,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -879,12 +845,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>96367A104</t>
+          <t>96367A975</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -901,7 +867,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -946,12 +912,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>96367A976</t>
+          <t>96367A104</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -968,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1013,12 +979,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>96367A128</t>
+          <t>96367A976</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>10.74</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1035,7 +1001,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1080,12 +1046,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>96367A230</t>
+          <t>96367A128</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12.05</t>
+          <t>10.74</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1102,7 +1068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1147,12 +1113,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>96367A413</t>
+          <t>96367A230</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1169,7 +1135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1209,17 +1175,17 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>96367A977</t>
+          <t>96367A413</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1236,7 +1202,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1246,17 +1212,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.210"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1281,17 +1247,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>96367A449</t>
+          <t>96367A977</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1303,7 +1269,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1313,7 +1279,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.268"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1348,12 +1314,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>96367A978</t>
+          <t>96367A449</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1370,7 +1336,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1415,12 +1381,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>96367A451</t>
+          <t>96367A978</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1437,7 +1403,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1482,12 +1448,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>96367A464</t>
+          <t>96367A451</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1504,7 +1470,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1549,12 +1515,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>96367A477</t>
+          <t>96367A464</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1571,7 +1537,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1581,7 +1547,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.268"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1616,12 +1582,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>96367A490</t>
+          <t>96367A477</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1638,7 +1604,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1648,12 +1614,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1683,17 +1649,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>96367A506</t>
+          <t>96367A490</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1705,7 +1671,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1715,7 +1681,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.314"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1750,12 +1716,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>96367A554</t>
+          <t>96367A506</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1772,7 +1738,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1817,12 +1783,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>96367A567</t>
+          <t>96367A554</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1839,7 +1805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1884,12 +1850,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>96367A580</t>
+          <t>96367A567</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1906,7 +1872,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1916,7 +1882,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.314"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1951,12 +1917,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>96367A514</t>
+          <t>96367A580</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1973,7 +1939,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1983,12 +1949,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.370"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2018,17 +1984,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>96367A603</t>
+          <t>96367A514</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2040,7 +2006,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2085,12 +2051,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>96367A657</t>
+          <t>96367A603</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2107,7 +2073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2152,12 +2118,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>96367A671</t>
+          <t>96367A657</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2174,7 +2140,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2219,12 +2185,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>96367A685</t>
+          <t>96367A671</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2241,7 +2207,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2286,12 +2252,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>96367A683</t>
+          <t>96367A685</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2308,7 +2274,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2318,17 +2284,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.490"</t>
+          <t>0.370"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2353,17 +2319,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>96367A744</t>
+          <t>96367A683</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2375,7 +2341,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2420,12 +2386,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>96367A858</t>
+          <t>96367A744</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2442,7 +2408,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2487,12 +2453,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>96367A903</t>
+          <t>96367A858</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2509,65 +2475,132 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.490"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-60° to 500°</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>96367A903</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>0.490"</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-60° to 500°</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-60° to 500°</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>96367A912</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>7.16</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>PEEK Plastic</t>
         </is>
